--- a/TestData/link.xlsx
+++ b/TestData/link.xlsx
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Link List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://automationexercise.com1/</t>
   </si>
   <si>
     <t xml:space="preserve">https://automationexercise.com/</t>
@@ -67,6 +64,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -88,6 +86,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -168,7 +167,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -176,59 +175,54 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://automationexercise.com1/"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/TestData/link.xlsx
+++ b/TestData/link.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t xml:space="preserve">Link List</t>
   </si>
@@ -59,7 +59,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -80,13 +80,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,16 +124,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -167,7 +156,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -175,7 +164,9 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
